--- a/old_database/crypto/library/library_1800.xlsx
+++ b/old_database/crypto/library/library_1800.xlsx
@@ -49,7 +49,7 @@
     <t>09.30.16</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_1800</t>
   </si>
   <si>
     <t>10.04.16</t>
